--- a/target/classes/com/crm/qa/util/TestData.xlsx
+++ b/target/classes/com/crm/qa/util/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febin\eclipse-workspace\FreeCRMTest\src\main\java\com\crm\qa\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6614766-953B-40A9-AC15-8256D5FBBFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79F8CC-7028-4B34-AEA1-69A6A87A58DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{959C199C-08C5-4A60-A765-921E0251584B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{959C199C-08C5-4A60-A765-921E0251584B}"/>
   </bookViews>
   <sheets>
     <sheet name="newcontact" sheetId="1" r:id="rId1"/>
+    <sheet name="newdeals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -84,12 +85,30 @@
   </si>
   <si>
     <t>Dr.</t>
+  </si>
+  <si>
+    <t>PrimaryContact</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>PredictedCloseDate</t>
+  </si>
+  <si>
+    <t>Lindt</t>
+  </si>
+  <si>
+    <t>Meera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4C9C05-3FC8-44C0-AEF1-CEF2B11AD824}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,4 +548,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612EE4B5-2D3F-45E9-ABCF-E17FD3D094C2}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45972</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>